--- a/xl/ブック1.xlsx
+++ b/xl/ブック1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
   <si>
     <t>高齢者・障害者総合支援センター「ひまわり」来館相談及び電話相談</t>
   </si>
@@ -79,6 +79,9 @@
   </si>
   <si>
     <t>12月14日（木）10時～12時</t>
+  </si>
+  <si>
+    <t>１３()[]ｱｲｳｴｵｶﾞｷﾞｸﾞｹﾞｺﾞﾊﾟﾋﾟﾌﾟﾍﾟﾎﾟ</t>
   </si>
 </sst>
 </file>
@@ -672,7 +675,7 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1048576"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -716,7 +719,41 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="19" thickBot="1"/>
+    <row r="6" spans="1:2">
+      <c r="A6" s="16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="B7" s="16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="B9" s="16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="B11" s="16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="19" thickBot="1">
+      <c r="A12" s="16" t="s">
+        <v>20</v>
+      </c>
+    </row>
     <row r="13" spans="1:2" ht="19" thickBot="1">
       <c r="A13" s="9" t="s">
         <v>7</v>
